--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E7AEFBE8-0B78-5543-9A5D-EC6D1E206BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177EFBE-77F1-0B41-9CBB-0ECB095E585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43900" yWindow="12480" windowWidth="23240" windowHeight="15820"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>VRF</t>
   </si>
@@ -54,51 +54,27 @@
     <t>vlan_100</t>
   </si>
   <si>
-    <t>172.31.100.1/24</t>
-  </si>
-  <si>
     <t>vlan_120</t>
   </si>
   <si>
-    <t>172.31.120.1/24</t>
-  </si>
-  <si>
     <t>Tenant_B</t>
   </si>
   <si>
     <t>vlan_200</t>
   </si>
   <si>
-    <t>fc01:face:0200::1/64</t>
-  </si>
-  <si>
     <t>vlan_240</t>
   </si>
   <si>
-    <t>fc01:face:0240::1/64</t>
-  </si>
-  <si>
     <t>vlan_280</t>
   </si>
   <si>
-    <t>fc01:face:0280::1/64</t>
-  </si>
-  <si>
     <t>vlan_130</t>
   </si>
   <si>
-    <t>irb_prefix4</t>
-  </si>
-  <si>
-    <t>irb_prefix6</t>
-  </si>
-  <si>
     <t>How to use this tool</t>
   </si>
   <si>
-    <t>172.31.28.1/24</t>
-  </si>
-  <si>
     <t>There is no real magic here, just a few key points to keep in mind:</t>
   </si>
   <si>
@@ -111,9 +87,6 @@
     <t>The column labeled 'vlan_id' is the numeric VLAN ID assigned to the particular VLAN.  Integers in the range [1, 4094] are allowed.</t>
   </si>
   <si>
-    <t>If the VLAN is routed, meaning the local attached switch is supposed to hold the default gateway for any hosts connected to the switch to the particular VLAN, then enter the IPv4 and/or IPv6 prefix associated with the default gateway address under the 'irb_prefix4' column (for IPv4 addresses) and/or the 'irb_prefix6' column (for IPv6 addresses).  If the VLAN is "purely L2", meaning that we expect any routing for the VLAN to happen on an external device like a firewall, then leave the irb_prefix4 and irb_prefix6 fields blank.</t>
-  </si>
-  <si>
     <t>The Column labeled 'VRF' is where you define the name of your routing zone (aka tenant).  For each VRF (or routing zone, or tenant, whatever you call it) include a uniqe integer index on the same row in the column labeled 'vrf_index'.  Best to start from 1 and count up.</t>
   </si>
   <si>
@@ -126,9 +99,6 @@
     <t xml:space="preserve">Tenant_B declaration begins here. </t>
   </si>
   <si>
-    <t>_VLANS vlan_200 and vlan_240 are routed IPv6 VLANs.</t>
-  </si>
-  <si>
     <t>_VLAN vlan_280 is a dual-stack (IPv4 and IPv6) routed VLAN.</t>
   </si>
   <si>
@@ -138,9 +108,6 @@
     <t>_VLAN vlan_130 is pure L2 -- note no irb_prefix4 or irb_prefix6.</t>
   </si>
   <si>
-    <t>_VLANs vlan_100 and vlan_120 are routed IPv4 VLANs.</t>
-  </si>
-  <si>
     <t>_VLANs associated with Tenant_A begin here.</t>
   </si>
   <si>
@@ -148,12 +115,93 @@
   </si>
   <si>
     <t>Table Description</t>
+  </si>
+  <si>
+    <t>irb_gateway4_a</t>
+  </si>
+  <si>
+    <t>irb_gateway4_b</t>
+  </si>
+  <si>
+    <t>irb_gateway6_a</t>
+  </si>
+  <si>
+    <t>irb_gateway6_b</t>
+  </si>
+  <si>
+    <t>vlan_1999</t>
+  </si>
+  <si>
+    <t>vlan_2999</t>
+  </si>
+  <si>
+    <t>172.31.28.1</t>
+  </si>
+  <si>
+    <t>172.31.99.1</t>
+  </si>
+  <si>
+    <t>172.31.120.1</t>
+  </si>
+  <si>
+    <t>172.31.100.1</t>
+  </si>
+  <si>
+    <t>172.31.99.2</t>
+  </si>
+  <si>
+    <t>172.31.99.3</t>
+  </si>
+  <si>
+    <t>ipv4_prefix_len</t>
+  </si>
+  <si>
+    <t>irb_gateway4</t>
+  </si>
+  <si>
+    <t>ipv6_prefix_len</t>
+  </si>
+  <si>
+    <t>fc01:face:0200::1</t>
+  </si>
+  <si>
+    <t>fc01:face:0240::1</t>
+  </si>
+  <si>
+    <t>fc01:face:0280::1</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::1</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::2</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::3</t>
+  </si>
+  <si>
+    <t>irb_gateway6</t>
+  </si>
+  <si>
+    <t>_VLANs vlan_100 and vlan_120 are routed IPv4 VLANs using anycast gateways.</t>
+  </si>
+  <si>
+    <t>_VLANS vlan_200 and vlan_240 are routed IPv6 VLANs using anycast gateways.</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_2999 is routed IPv6 and uses VGA gateway.</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_1999 is routed IPv4 and uses VGA gateway.</t>
+  </si>
+  <si>
+    <t>If the VLAN is routed, meaning the local attached switch is supposed to hold the default gateway for any hosts connected to the switch to the particular VLAN, then enter the IPv4 and/or IPv6 address associated with the default gateway address under the 'irb_gateway4' column (for IPv4 addresses) and/or the 'irb_gateway6' column (for IPv6 addresses).  If the VLAN is used for peering with external routers, each switch in the VLAN (usually 1 or 2) will need a unique IP address in addition to the (virtual) default gateway address.  You can ad those in the *_gateway_a and *_gateway_b columns.  If the VLAN is "purely L2", meaning that we expect any routing for the VLAN to happen on an external device like a firewall, then leave the irb_prefix4 and irb_prefix6 fields blank.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -172,14 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -192,8 +232,14 @@
       <color theme="9"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,36 +248,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor rgb="FF70AD47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor rgb="FFE2EFDA"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA9D08E"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9D08E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D08E"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -245,24 +272,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFA9D08E"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9D08E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D08E"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -273,63 +287,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="28">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -346,15 +427,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:F10"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="VRF" dataDxfId="7"/>
-    <tableColumn id="2" name="vrf_index" dataDxfId="6"/>
-    <tableColumn id="3" name="VLAN" dataDxfId="5"/>
-    <tableColumn id="4" name="vlan_id" dataDxfId="4"/>
-    <tableColumn id="5" name="irb_prefix4" dataDxfId="3"/>
-    <tableColumn id="6" name="irb_prefix6" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DEFE5CC-314D-534B-A01B-1F00D4C514DB}" name="Table13" displayName="Table13" ref="D10:O21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="D10:O21" xr:uid="{3DEFE5CC-314D-534B-A01B-1F00D4C514DB}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{48217B9A-5447-254C-A543-21728154FD65}" name="VRF" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{ABC358E6-DBEC-C34F-9960-D00A5750A8F0}" name="vrf_index" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{DA0D4934-E34F-B94B-9CD1-750A89CF1A97}" name="VLAN" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{692DF738-6B5F-6A43-BAE1-E10A1330987B}" name="vlan_id" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{8530D184-DD88-D849-AA5D-E5641F88A255}" name="ipv4_prefix_len" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{F16E57E0-FC88-5F46-AF2C-A258F0F049BE}" name="irb_gateway4" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{4E6A568C-37D5-3741-8713-D56F356E5CBE}" name="irb_gateway4_a" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B6335767-1B4A-494C-9F80-827DA6D9C106}" name="irb_gateway4_b" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{34B4D5A3-6A67-7845-8F10-97E3B4BADFAB}" name="ipv6_prefix_len" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{37BD4C7B-90D7-8648-91B6-36A4FA19AB45}" name="irb_gateway6" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3F08C0D0-65E4-FB48-8FAD-5F37BF7CC121}" name="irb_gateway6_a" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{B1094AB4-74CC-0649-8A90-EE521E18624F}" name="irb_gateway6_b" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:L12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VRF" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="vrf_index" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="24"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -656,82 +764,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -744,279 +858,295 @@
         <v>2</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>120</v>
+      </c>
+      <c r="H13" s="5">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11">
-        <v>100</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <v>130</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1999</v>
+      </c>
+      <c r="H15" s="5">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="J15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="8">
-        <v>120</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="G18" s="5">
+        <v>200</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>64</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5">
+        <v>240</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5">
+        <v>64</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>280</v>
+      </c>
+      <c r="H20" s="5">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="11">
-        <v>130</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="11">
-        <v>2</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5">
+        <v>64</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="8">
-        <v>200</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="11">
-        <v>240</v>
-      </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="8">
-        <v>280</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>240</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
-        <v>280</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
+      <c r="G21" s="5">
+        <v>2999</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>64</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1028,4 +1158,211 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="16.83203125" style="5" customWidth="1"/>
+    <col min="10" max="12" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>120</v>
+      </c>
+      <c r="E4" s="5">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>200</v>
+      </c>
+      <c r="I9" s="5">
+        <v>64</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>240</v>
+      </c>
+      <c r="I10" s="5">
+        <v>64</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5">
+        <v>280</v>
+      </c>
+      <c r="E11" s="5">
+        <v>24</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="5">
+        <v>64</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2999</v>
+      </c>
+      <c r="I12" s="5">
+        <v>64</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177EFBE-77F1-0B41-9CBB-0ECB095E585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED73888-72B4-154E-9FA1-0197489A66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="24520" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="6360" windowWidth="52580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>VRF</t>
   </si>
@@ -189,20 +189,71 @@
     <t>_VLANS vlan_200 and vlan_240 are routed IPv6 VLANs using anycast gateways.</t>
   </si>
   <si>
-    <t>_VLAN vlan_2999 is routed IPv6 and uses VGA gateway.</t>
-  </si>
-  <si>
-    <t>_VLAN vlan_1999 is routed IPv4 and uses VGA gateway.</t>
-  </si>
-  <si>
     <t>If the VLAN is routed, meaning the local attached switch is supposed to hold the default gateway for any hosts connected to the switch to the particular VLAN, then enter the IPv4 and/or IPv6 address associated with the default gateway address under the 'irb_gateway4' column (for IPv4 addresses) and/or the 'irb_gateway6' column (for IPv6 addresses).  If the VLAN is used for peering with external routers, each switch in the VLAN (usually 1 or 2) will need a unique IP address in addition to the (virtual) default gateway address.  You can ad those in the *_gateway_a and *_gateway_b columns.  If the VLAN is "purely L2", meaning that we expect any routing for the VLAN to happen on an external device like a firewall, then leave the irb_prefix4 and irb_prefix6 fields blank.</t>
+  </si>
+  <si>
+    <t>Routing Protocol Pick List (used in column M of the vrf_vlan_table sheet)</t>
+  </si>
+  <si>
+    <t>OSPF</t>
+  </si>
+  <si>
+    <t>BGP</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Routing Protocol</t>
+  </si>
+  <si>
+    <t>Border?</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BGP?</t>
+  </si>
+  <si>
+    <t>OSPF?</t>
+  </si>
+  <si>
+    <t>Static?</t>
+  </si>
+  <si>
+    <t>Peer IPv4</t>
+  </si>
+  <si>
+    <t>Peer IPv6</t>
+  </si>
+  <si>
+    <t>172.31.99.6</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::fffe</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_1999 is routed IPv4 and uses VGA gateway.  BGP routing to external gateway.</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_2999 is routed IPv6 and uses VGA gateway.  OSPFv3 routing to external gateway.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +285,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,62 +360,153 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -427,42 +582,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3DEFE5CC-314D-534B-A01B-1F00D4C514DB}" name="Table13" displayName="Table13" ref="D10:O21" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="D10:O21" xr:uid="{3DEFE5CC-314D-534B-A01B-1F00D4C514DB}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{48217B9A-5447-254C-A543-21728154FD65}" name="VRF" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{ABC358E6-DBEC-C34F-9960-D00A5750A8F0}" name="vrf_index" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{DA0D4934-E34F-B94B-9CD1-750A89CF1A97}" name="VLAN" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{692DF738-6B5F-6A43-BAE1-E10A1330987B}" name="vlan_id" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{8530D184-DD88-D849-AA5D-E5641F88A255}" name="ipv4_prefix_len" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{F16E57E0-FC88-5F46-AF2C-A258F0F049BE}" name="irb_gateway4" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{4E6A568C-37D5-3741-8713-D56F356E5CBE}" name="irb_gateway4_a" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B6335767-1B4A-494C-9F80-827DA6D9C106}" name="irb_gateway4_b" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{34B4D5A3-6A67-7845-8F10-97E3B4BADFAB}" name="ipv6_prefix_len" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{37BD4C7B-90D7-8648-91B6-36A4FA19AB45}" name="irb_gateway6" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3F08C0D0-65E4-FB48-8FAD-5F37BF7CC121}" name="irb_gateway6_a" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{B1094AB4-74CC-0649-8A90-EE521E18624F}" name="irb_gateway6_b" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+  <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:L12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VRF" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="vrf_index" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+  <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:U21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="D10:U21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R12" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:R12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VRF" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="vrf_index" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="21"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="31"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -765,16 +952,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="81.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
@@ -783,17 +970,17 @@
     <col min="14" max="15" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -801,7 +988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -809,7 +996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -817,7 +1004,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -825,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -833,15 +1020,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -881,8 +1068,26 @@
       <c r="O10" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -902,8 +1107,14 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -927,8 +1138,16 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="P12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
@@ -952,8 +1171,16 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+    </row>
+    <row r="14" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -973,10 +1200,18 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+    </row>
+    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1002,8 +1237,24 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="5"/>
+    </row>
+    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1019,8 +1270,14 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+    </row>
+    <row r="17" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1040,8 +1297,14 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+    </row>
+    <row r="18" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1065,8 +1328,16 @@
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+    </row>
+    <row r="19" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1090,8 +1361,16 @@
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+    </row>
+    <row r="20" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1119,10 +1398,18 @@
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="2:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1148,24 +1435,101 @@
       <c r="O21" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="P21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="S11:S21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
+      <formula1>$B$39:$B$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="R11:R21" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
+      <formula1>$B$39:$B$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="Q11:Q21" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
+      <formula1>$B$39:$B$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="P11:P21" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
+      <formula1>$B$39:$B$40</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
   </headerFooter>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,10 +1538,16 @@
     <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="16.83203125" style="5" customWidth="1"/>
     <col min="10" max="12" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="5"/>
+    <col min="13" max="13" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="5"/>
+    <col min="18" max="18" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1214,8 +1584,26 @@
       <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1223,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1236,8 +1624,11 @@
       <c r="F3" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1250,16 +1641,22 @@
       <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1278,8 +1675,23 @@
       <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1300,8 +1712,11 @@
       <c r="J9" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1314,8 +1729,11 @@
       <c r="J10" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1752,11 @@
       <c r="J11" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
@@ -1353,6 +1774,21 @@
       </c>
       <c r="L12" s="6" t="s">
         <v>47</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1364,5 +1800,35 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." xr:uid="{A4E2DE9B-95BC-1A47-9ED2-9FDDF8B2F40A}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$39:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" xr:uid="{ABEF2EB8-95D2-EB48-926F-749EE246B98E}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$39:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" xr:uid="{4D69B282-05F7-7243-8D4E-D2BF7D10CABF}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$39:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" xr:uid="{4CF55F88-49AA-7C40-B4F4-1C1149F525C8}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$39:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>P2:P12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED73888-72B4-154E-9FA1-0197489A66A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B975D7F-2462-4F48-93A2-93E0505DA46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8480" yWindow="6360" windowWidth="52580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="16140" windowWidth="52580" windowHeight="10720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t>VRF</t>
   </si>
@@ -247,13 +247,100 @@
   </si>
   <si>
     <t>_VLAN vlan_2999 is routed IPv6 and uses VGA gateway.  OSPFv3 routing to external gateway.</t>
+  </si>
+  <si>
+    <t>OVERLAY</t>
+  </si>
+  <si>
+    <t>vlan_1310</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>10.110.33.1</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:151e::1</t>
+  </si>
+  <si>
+    <t>vlan_1315</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:1523::1</t>
+  </si>
+  <si>
+    <t>vlan_1320</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>vlan_1330</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>vlan_1390</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>10.110.36.1</t>
+  </si>
+  <si>
+    <t>10.110.36.2</t>
+  </si>
+  <si>
+    <t>10.110.36.3</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:156e::1</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:156e::2</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:156e::3</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:156e::fffe</t>
+  </si>
+  <si>
+    <t>10.110.36.62</t>
+  </si>
+  <si>
+    <t>OSPF Area</t>
+  </si>
+  <si>
+    <t>0.0.0.99</t>
+  </si>
+  <si>
+    <t>10.110.34.1</t>
+  </si>
+  <si>
+    <t>BGP Peer ASN</t>
+  </si>
+  <si>
+    <t>64999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +389,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -340,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -366,14 +460,97 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="50">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -480,8 +657,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -502,72 +681,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -582,74 +695,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="24" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:U21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="D10:U21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="D10:W21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="25"/>
+    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R12" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:R12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VRF" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="vrf_index" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="27"/>
-    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="21"/>
-    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="31"/>
-    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:T12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:T12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VRF" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="vrf_index" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{3FAD6A5D-224E-6E49-8299-21808071F49C}" name="OSPF Area" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -952,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,19 +1085,21 @@
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -988,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -996,7 +1115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1004,7 +1123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1012,7 +1131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1020,7 +1139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="170" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1028,7 +1147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1086,8 +1205,14 @@
       <c r="U10" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1113,8 +1238,10 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1146,8 +1273,10 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
@@ -1179,8 +1308,10 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1208,8 +1339,10 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
@@ -1253,8 +1386,12 @@
         <v>67</v>
       </c>
       <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1276,8 +1413,10 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-    </row>
-    <row r="17" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1303,8 +1442,10 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1336,8 +1477,10 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-    </row>
-    <row r="19" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
@@ -1369,8 +1512,10 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1406,8 +1551,10 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>70</v>
       </c>
@@ -1451,18 +1598,22 @@
       <c r="U21" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="V21" s="5"/>
+      <c r="W21" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>56</v>
       </c>
@@ -1526,28 +1677,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:R12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="16.83203125" style="5" customWidth="1"/>
-    <col min="10" max="12" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="5"/>
-    <col min="18" max="18" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="2" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="16.83203125" style="5" customWidth="1"/>
+    <col min="11" max="13" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1555,131 +1709,142 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>100</v>
-      </c>
-      <c r="E3" s="5">
-        <v>24</v>
+      <c r="C2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5">
-        <v>120</v>
-      </c>
-      <c r="E4" s="5">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="D4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>130</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1999</v>
-      </c>
-      <c r="E6" s="5">
-        <v>29</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>60</v>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>61</v>
@@ -1688,108 +1853,83 @@
         <v>61</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>200</v>
-      </c>
-      <c r="I9" s="5">
-        <v>64</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5">
-        <v>240</v>
-      </c>
-      <c r="I10" s="5">
-        <v>64</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>280</v>
-      </c>
-      <c r="E11" s="5">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="5">
-        <v>64</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2999</v>
-      </c>
-      <c r="I12" s="5">
-        <v>64</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="9" t="s">
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="O7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="P7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="10">
+        <v>64999</v>
+      </c>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U11" s="5"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M12" s="6"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="U12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1807,25 +1947,25 @@
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M12</xm:sqref>
+          <xm:sqref>N2:N12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" xr:uid="{ABEF2EB8-95D2-EB48-926F-749EE246B98E}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N12</xm:sqref>
+          <xm:sqref>O2:O12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" xr:uid="{4D69B282-05F7-7243-8D4E-D2BF7D10CABF}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O12</xm:sqref>
+          <xm:sqref>P2:P12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" xr:uid="{4CF55F88-49AA-7C40-B4F4-1C1149F525C8}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P12</xm:sqref>
+          <xm:sqref>Q2:Q12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B975D7F-2462-4F48-93A2-93E0505DA46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87CD59-E8D8-E34B-B4CC-1177F1AED355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="16140" windowWidth="52580" windowHeight="10720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="11300" windowWidth="47460" windowHeight="11980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
-    <sheet name="vrf_vlan_table" sheetId="1" r:id="rId2"/>
+    <sheet name="vrf_table" sheetId="3" r:id="rId2"/>
+    <sheet name="vlan_table" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
   <si>
     <t>VRF</t>
   </si>
@@ -334,6 +335,63 @@
   </si>
   <si>
     <t>64999</t>
+  </si>
+  <si>
+    <t>VRF Index</t>
+  </si>
+  <si>
+    <t>DHCPv4 Relay?</t>
+  </si>
+  <si>
+    <t>DHCPv4 Server 1</t>
+  </si>
+  <si>
+    <t>DHCPv4 Server 2</t>
+  </si>
+  <si>
+    <t>DHCPv4 Server 3</t>
+  </si>
+  <si>
+    <t>DHCPv4 Server 4</t>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+  </si>
+  <si>
+    <t>DHCPv6 Relay?</t>
+  </si>
+  <si>
+    <t>DHCPv6 Server 1</t>
+  </si>
+  <si>
+    <t>DHCPv6 Server 2</t>
+  </si>
+  <si>
+    <t>DHCPv6 Server 3</t>
+  </si>
+  <si>
+    <t>DHCPv6 Server 4</t>
+  </si>
+  <si>
+    <t>10.110.99.5</t>
+  </si>
+  <si>
+    <t>10.110.99.6</t>
+  </si>
+  <si>
+    <t>2601:face:beef::aa99:5</t>
+  </si>
+  <si>
+    <t>2601:face:beef::aa99:6</t>
+  </si>
+  <si>
+    <t>2601:face:beef::aa99:7</t>
+  </si>
+  <si>
+    <t>2601:face:beef::aa99:8</t>
+  </si>
+  <si>
+    <t>vrf</t>
   </si>
 </sst>
 </file>
@@ -434,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,11 +524,66 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="63">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -695,78 +808,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="D10:W21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="23"/>
-    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="43"/>
+    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="42"/>
+    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="41"/>
+    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="40"/>
+    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:T12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:T12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VRF" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="vrf_index" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{3FAD6A5D-224E-6E49-8299-21808071F49C}" name="OSPF Area" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="12">
+      <calculatedColumnFormula>ROW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Relay?" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Relay?" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:R6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="23"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="20"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1071,7 +1206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1676,260 +1811,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B287F-D4C8-774A-B570-29B7D13CF538}">
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="5"/>
-    <col min="6" max="6" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="16.83203125" style="5" customWidth="1"/>
-    <col min="11" max="13" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="8" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="5">
-        <v>1</v>
+      <c r="B2" s="11">
+        <f>ROW()</f>
+        <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="D3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="D6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" ht="19" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="T7" s="10">
-        <v>64999</v>
-      </c>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="M12" s="6"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="U12" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1942,30 +1917,297 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DHCPv4 Relay?" prompt="Do you wish to enable DHCP relay for IPv4 in this VRF?" xr:uid="{1B85771F-D8CF-0A46-A2FD-E035BEDDFDBA}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$39:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DHCPv6 Relay?" prompt="Do you wish to enable DHCP relay for IPv6 in this VRF?" xr:uid="{9C622FF7-244E-914F-9D10-AFD9AEDE3E71}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$39:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="17" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="16.83203125" style="5" customWidth="1"/>
+    <col min="9" max="11" width="24.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="10">
+        <v>64999</v>
+      </c>
+      <c r="S6" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." xr:uid="{A4E2DE9B-95BC-1A47-9ED2-9FDDF8B2F40A}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N12</xm:sqref>
+          <xm:sqref>L2:L6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" xr:uid="{ABEF2EB8-95D2-EB48-926F-749EE246B98E}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O12</xm:sqref>
+          <xm:sqref>M2:M6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" xr:uid="{4D69B282-05F7-7243-8D4E-D2BF7D10CABF}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P12</xm:sqref>
+          <xm:sqref>N2:N6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" xr:uid="{4CF55F88-49AA-7C40-B4F4-1C1149F525C8}">
           <x14:formula1>
             <xm:f>Instructions!$B$39:$B$40</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q12</xm:sqref>
+          <xm:sqref>O2:O6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VRF" error="This VLAN must be associated with a VRF.  Please select from the drop-down." promptTitle="VRF" prompt="What VRF is this VLAN associated with?  This value is required." xr:uid="{A6641576-24D3-DC4B-A8D2-9F68865D8DE1}">
+          <x14:formula1>
+            <xm:f>vrf_table!$A$2:$A$399</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D87CD59-E8D8-E34B-B4CC-1177F1AED355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2823DDE-5A51-FA4C-848A-6BE52BAE44A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="11300" windowWidth="47460" windowHeight="11980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="8960" windowWidth="47460" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t>VRF</t>
   </si>
@@ -340,9 +340,6 @@
     <t>VRF Index</t>
   </si>
   <si>
-    <t>DHCPv4 Relay?</t>
-  </si>
-  <si>
     <t>DHCPv4 Server 1</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>0.0.0.0</t>
   </si>
   <si>
-    <t>DHCPv6 Relay?</t>
-  </si>
-  <si>
     <t>DHCPv6 Server 1</t>
   </si>
   <si>
@@ -392,6 +386,21 @@
   </si>
   <si>
     <t>vrf</t>
+  </si>
+  <si>
+    <t>DHCP Mode</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>DHCPv4 Mode</t>
+  </si>
+  <si>
+    <t>DHCPv6 Mode</t>
   </si>
 </sst>
 </file>
@@ -492,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -524,14 +533,87 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="66">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -597,80 +679,13 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -808,100 +823,110 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="D10:W21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="51"/>
-    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="43"/>
-    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="42"/>
-    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="37"/>
-    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="54"/>
+    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="45"/>
+    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="44"/>
+    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="41"/>
+    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="39"/>
+    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="12">
-      <calculatedColumnFormula>ROW()</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Relay?" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Relay?" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B42:B45" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+  <autoFilter ref="B42:B45" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="31">
+      <calculatedColumnFormula>ROW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Mode" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Mode" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="18"/>
-    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1204,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1783,6 +1808,26 @@
         <v>61</v>
       </c>
     </row>
+    <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="S11:S21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
@@ -1802,10 +1847,11 @@
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
   </headerFooter>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1814,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B287F-D4C8-774A-B570-29B7D13CF538}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1822,7 +1868,7 @@
   <cols>
     <col min="1" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
@@ -1840,70 +1886,70 @@
         <v>95</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="1">
         <f>ROW()</f>
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1918,15 +1964,15 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DHCPv4 Relay?" prompt="Do you wish to enable DHCP relay for IPv4 in this VRF?" xr:uid="{1B85771F-D8CF-0A46-A2FD-E035BEDDFDBA}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv4 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" xr:uid="{1B85771F-D8CF-0A46-A2FD-E035BEDDFDBA}">
           <x14:formula1>
-            <xm:f>Instructions!$B$39:$B$40</xm:f>
+            <xm:f>Instructions!$B$43:$B$45</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DHCPv6 Relay?" prompt="Do you wish to enable DHCP relay for IPv6 in this VRF?" xr:uid="{9C622FF7-244E-914F-9D10-AFD9AEDE3E71}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv6 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" xr:uid="{21BDDB48-4481-594A-888D-9BCB935E1660}">
           <x14:formula1>
-            <xm:f>Instructions!$B$39:$B$40</xm:f>
+            <xm:f>Instructions!$B$43:$B$45</xm:f>
           </x14:formula1>
           <xm:sqref>I2</xm:sqref>
         </x14:dataValidation>
@@ -1940,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>39</v>

--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2823DDE-5A51-FA4C-848A-6BE52BAE44A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933F4CB-3200-4443-95EB-945B83F13248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="8960" windowWidth="47460" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="2520" windowWidth="47460" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>VRF</t>
   </si>
@@ -46,33 +46,6 @@
     <t>vlan_id</t>
   </si>
   <si>
-    <t>vrf_index</t>
-  </si>
-  <si>
-    <t>Tenant_A</t>
-  </si>
-  <si>
-    <t>vlan_100</t>
-  </si>
-  <si>
-    <t>vlan_120</t>
-  </si>
-  <si>
-    <t>Tenant_B</t>
-  </si>
-  <si>
-    <t>vlan_200</t>
-  </si>
-  <si>
-    <t>vlan_240</t>
-  </si>
-  <si>
-    <t>vlan_280</t>
-  </si>
-  <si>
-    <t>vlan_130</t>
-  </si>
-  <si>
     <t>How to use this tool</t>
   </si>
   <si>
@@ -82,42 +55,6 @@
     <t>Do not change any of the header row names.  We need these names to be as they are so that the Python script knows where to find things.</t>
   </si>
   <si>
-    <t>VLANs associated with the VRF start on the row below the VRF name.  The column labeled 'VLAN' is where you put the name of the VLAN.  It can be anything that starts with a letter and includes alpha, numeric, and - or _ characters.</t>
-  </si>
-  <si>
-    <t>The column labeled 'vlan_id' is the numeric VLAN ID assigned to the particular VLAN.  Integers in the range [1, 4094] are allowed.</t>
-  </si>
-  <si>
-    <t>The Column labeled 'VRF' is where you define the name of your routing zone (aka tenant).  For each VRF (or routing zone, or tenant, whatever you call it) include a uniqe integer index on the same row in the column labeled 'vrf_index'.  Best to start from 1 and count up.</t>
-  </si>
-  <si>
-    <t>Declare 'Tenant_A' here.  Row contains the name and vrf_index only.</t>
-  </si>
-  <si>
-    <t>__ Blank line just makes the table easier to read __</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenant_B declaration begins here. </t>
-  </si>
-  <si>
-    <t>_VLAN vlan_280 is a dual-stack (IPv4 and IPv6) routed VLAN.</t>
-  </si>
-  <si>
-    <t>_VLANs associated with Tenant_B.</t>
-  </si>
-  <si>
-    <t>_VLAN vlan_130 is pure L2 -- note no irb_prefix4 or irb_prefix6.</t>
-  </si>
-  <si>
-    <t>_VLANs associated with Tenant_A begin here.</t>
-  </si>
-  <si>
-    <t>All of the work is done in the sheet named vrf_vlan_table.  These are just instructions.  A sample table is presented starting in Column D at the bottom of this page.</t>
-  </si>
-  <si>
-    <t>Table Description</t>
-  </si>
-  <si>
     <t>irb_gateway4_a</t>
   </si>
   <si>
@@ -130,30 +67,6 @@
     <t>irb_gateway6_b</t>
   </si>
   <si>
-    <t>vlan_1999</t>
-  </si>
-  <si>
-    <t>vlan_2999</t>
-  </si>
-  <si>
-    <t>172.31.28.1</t>
-  </si>
-  <si>
-    <t>172.31.99.1</t>
-  </si>
-  <si>
-    <t>172.31.120.1</t>
-  </si>
-  <si>
-    <t>172.31.100.1</t>
-  </si>
-  <si>
-    <t>172.31.99.2</t>
-  </si>
-  <si>
-    <t>172.31.99.3</t>
-  </si>
-  <si>
     <t>ipv4_prefix_len</t>
   </si>
   <si>
@@ -163,36 +76,9 @@
     <t>ipv6_prefix_len</t>
   </si>
   <si>
-    <t>fc01:face:0200::1</t>
-  </si>
-  <si>
-    <t>fc01:face:0240::1</t>
-  </si>
-  <si>
-    <t>fc01:face:0280::1</t>
-  </si>
-  <si>
-    <t>fc01:face:2999::1</t>
-  </si>
-  <si>
-    <t>fc01:face:2999::2</t>
-  </si>
-  <si>
-    <t>fc01:face:2999::3</t>
-  </si>
-  <si>
     <t>irb_gateway6</t>
   </si>
   <si>
-    <t>_VLANs vlan_100 and vlan_120 are routed IPv4 VLANs using anycast gateways.</t>
-  </si>
-  <si>
-    <t>_VLANS vlan_200 and vlan_240 are routed IPv6 VLANs using anycast gateways.</t>
-  </si>
-  <si>
-    <t>If the VLAN is routed, meaning the local attached switch is supposed to hold the default gateway for any hosts connected to the switch to the particular VLAN, then enter the IPv4 and/or IPv6 address associated with the default gateway address under the 'irb_gateway4' column (for IPv4 addresses) and/or the 'irb_gateway6' column (for IPv6 addresses).  If the VLAN is used for peering with external routers, each switch in the VLAN (usually 1 or 2) will need a unique IP address in addition to the (virtual) default gateway address.  You can ad those in the *_gateway_a and *_gateway_b columns.  If the VLAN is "purely L2", meaning that we expect any routing for the VLAN to happen on an external device like a firewall, then leave the irb_prefix4 and irb_prefix6 fields blank.</t>
-  </si>
-  <si>
     <t>Routing Protocol Pick List (used in column M of the vrf_vlan_table sheet)</t>
   </si>
   <si>
@@ -238,18 +124,6 @@
     <t>Peer IPv6</t>
   </si>
   <si>
-    <t>172.31.99.6</t>
-  </si>
-  <si>
-    <t>fc01:face:2999::fffe</t>
-  </si>
-  <si>
-    <t>_VLAN vlan_1999 is routed IPv4 and uses VGA gateway.  BGP routing to external gateway.</t>
-  </si>
-  <si>
-    <t>_VLAN vlan_2999 is routed IPv6 and uses VGA gateway.  OSPFv3 routing to external gateway.</t>
-  </si>
-  <si>
     <t>OVERLAY</t>
   </si>
   <si>
@@ -325,18 +199,12 @@
     <t>OSPF Area</t>
   </si>
   <si>
-    <t>0.0.0.99</t>
-  </si>
-  <si>
     <t>10.110.34.1</t>
   </si>
   <si>
     <t>BGP Peer ASN</t>
   </si>
   <si>
-    <t>64999</t>
-  </si>
-  <si>
     <t>VRF Index</t>
   </si>
   <si>
@@ -401,13 +269,58 @@
   </si>
   <si>
     <t>DHCPv6 Mode</t>
+  </si>
+  <si>
+    <t>There are two tables in this workbook that contain configurable items.  The vrf_table is where we define the Tenants (VRF's) in our overlay.  The vlan_table is where we define the individual VLAN's.  Each VLAN must belong to a Tenant/VRF.</t>
+  </si>
+  <si>
+    <t>***DO NOT CHANGE ANYTHING BELOW THIS LINE***</t>
+  </si>
+  <si>
+    <t>vlan_1310 is a host-facing dual-stack VLAN</t>
+  </si>
+  <si>
+    <t>vlan_1315 is a host-facing IPv6-only VLAN</t>
+  </si>
+  <si>
+    <t>vlan_1320 is a host-facing IPv4-only VLAN</t>
+  </si>
+  <si>
+    <t>vlan_1330 is a host-facing bridged VLAN -- no IPv4 or IPv6 gateway in the fabric</t>
+  </si>
+  <si>
+    <t>vlan_1390 is a boder VLAN that peers via IPv4 and IPv6 with an external router</t>
+  </si>
+  <si>
+    <t>vlan_table example</t>
+  </si>
+  <si>
+    <t>Table Descriptions</t>
+  </si>
+  <si>
+    <t>vrf_table example</t>
+  </si>
+  <si>
+    <t>Tenant supporting dual-stack, DHCP relay, and external routing via OSPF, BGP, and static routes</t>
+  </si>
+  <si>
+    <t>In the vrf_table, the VRF Index is automatically generated.  You do not need to create the index by hand, but if you choose to do so, it must be a unique integer.  If there will be OSPF for routing between the tenant and the outside world, you set the OSPF area ID here.  The DHCP mode for both v4 and v6 can be set to None, Relay, or Server.  If set to relay, you can add up to 4 remote servers per protocol (IPv4 or IPv6).  If set to server, then the local switch is the DHCP server.</t>
+  </si>
+  <si>
+    <t>The vlan_table holds the items relevant to the individual VLANs.  You must assign a VLAN to a previously-configured VRF, as the 'vrf' column is a pick list, so create the VRF in vrf_table first.  Most VLANs are host-facing, not Border VLANs.  Host-facing VLANs use an anycast gateway address (e.g., every switch with the VLAN has the same IP address assigned to the associated IRB interface).  For an anycast gateway, you need only populate the irb_gateway4/irb_gateway6 column(s) to provide routing for local hosts.</t>
+  </si>
+  <si>
+    <t>For border VLANs, each switch must have a unique IP address for protocol peering with the external router.  For Border VLAN's only, you will set the virtual gateway address (irb_gateway4/irb_gateway6) and the unique IP's for the 'A' and 'B' switches (irb_gateway4_a/irb_gateway6_a and irb_gateway4_b/irb_gateway6_b).</t>
+  </si>
+  <si>
+    <t>For host-facing VLAN's, Border? = No.  For border VLAN's, Border? = Yes.  If you designate a VLAN as a Border VLAN, you must also enable one or more routing protocols.  BGP and static routes require a peer (in the case of a static route, it's just the next-hop), while OSPF does not.  Remember that OSPF does require an Area ID assignment in the vrf_table.  BGP peering also requires knowing the peer ASN.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,13 +333,6 @@
       <i/>
       <sz val="16"/>
       <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,38 +369,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9D08E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D08E"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -512,112 +416,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="79">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -679,6 +503,226 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -686,94 +730,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -823,110 +779,132 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
   <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="D10:W21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
-  <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="50"/>
-    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="45"/>
-    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="44"/>
-    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="39"/>
-    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B42:B45" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="B42:B45" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B42:B45" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B42:B45" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F123A756-81F6-FD4C-9819-D8AD35262A68}" name="Table16" displayName="Table16" ref="D16:U21" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="D16:U21" xr:uid="{F123A756-81F6-FD4C-9819-D8AD35262A68}"/>
+  <tableColumns count="18">
+    <tableColumn id="3" xr3:uid="{A10C1437-8936-CE4D-8C20-778462D57F4B}" name="VLAN" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{2C81D33F-C8E2-DC45-AC25-1E4B33A313E6}" name="vlan_id" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{8798C719-7BE9-2641-8CE3-A87CD739D608}" name="vrf" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{775166DF-F0CA-2C49-953D-A54AB0754569}" name="ipv4_prefix_len" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{DFC0767A-086A-7645-A05E-BDFFD082D8CF}" name="irb_gateway4" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{CAC15505-4567-D34F-8911-B5946F48A058}" name="irb_gateway4_a" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{1C6AC8FF-77E4-8440-A621-422526B75DAD}" name="irb_gateway4_b" dataDxfId="26"/>
+    <tableColumn id="12" xr3:uid="{9F027E12-C65E-E248-8E1A-C6CE3F21FCBF}" name="ipv6_prefix_len" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{968F160C-DEE0-4549-A0FB-9536671F4ECB}" name="irb_gateway6" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{94B70256-E09B-D34B-8B64-0A1208CD9964}" name="irb_gateway6_a" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{8E7F9358-1BF0-C34E-BF84-9AF12A52314D}" name="irb_gateway6_b" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{445AA069-36C1-1E46-95B3-1A113F863DAF}" name="Border?" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{C71E7895-E51D-2D46-AE13-95026EBA209B}" name="BGP?" dataDxfId="20"/>
+    <tableColumn id="17" xr3:uid="{1E8B3B5D-5C6E-DA4B-9F8A-918CEFEEA87E}" name="OSPF?" dataDxfId="19"/>
+    <tableColumn id="18" xr3:uid="{8951AAE4-D23C-8E42-9F4F-745BFB2E9D7C}" name="Static?" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{A2289F86-F7F0-F746-887E-C5AB43D2E708}" name="Peer IPv4" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{E3B17BDA-1113-344F-B0CF-6F7CF30214DF}" name="Peer IPv6" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{64C52624-F990-614C-A1C2-BC5314BB5554}" name="BGP Peer ASN" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7AF34A03-2654-F945-9C54-68234AA5C711}" name="Table138" displayName="Table138" ref="D11:P12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="D11:P12" xr:uid="{7AF34A03-2654-F945-9C54-68234AA5C711}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{80B92D79-79DD-084B-99AF-0A2F0F9EF4FA}" name="VRF" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{98F54F06-F370-714B-B79F-227FE4125A32}" name="VRF Index" dataDxfId="11">
       <calculatedColumnFormula>ROW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Mode" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Mode" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{ADE9CD37-ECDD-4044-9935-8DAECBFD74E4}" name="OSPF Area" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{C327D454-E43A-8A45-838C-FD09FB1E501A}" name="DHCPv4 Mode" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B2C64575-092A-7248-A745-BBEBDD7168AF}" name="DHCPv4 Server 1" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{F721D953-58FB-4C4A-B77E-D9C535DA0B04}" name="DHCPv4 Server 2" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E429AADA-A536-D841-B20C-59262BCE4446}" name="DHCPv4 Server 3" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{E1CCAD34-77DC-3D4A-A5DD-E92DD7E3764F}" name="DHCPv4 Server 4" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{19F434FB-C37F-FF40-847B-5F6F470BD295}" name="DHCPv6 Mode" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{171DA5ED-A1C7-1247-9883-368A06BF4FAD}" name="DHCPv6 Server 1" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D8C6B60F-DED8-5143-93FE-CB822682B468}" name="DHCPv6 Server 2" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{FFB0DABA-FA26-F849-9A7B-FF8DAFE58798}" name="DHCPv6 Server 3" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{597FC488-5B49-E644-B25B-93BFAD58695D}" name="DHCPv6 Server 4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="66">
+      <calculatedColumnFormula>ROW()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Mode" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Mode" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="58"/>
+    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <autoFilter ref="A1:R6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="18">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="46"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="41"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="38"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1231,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,21 +1220,22 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="51" x14ac:dyDescent="0.2">
@@ -1264,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="34" x14ac:dyDescent="0.2">
@@ -1272,330 +1251,242 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="J11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>100</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24</v>
+        <v>61</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="P12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+        <v>71</v>
+      </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5">
-        <v>120</v>
-      </c>
-      <c r="H13" s="5">
-        <v>24</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
-        <v>130</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1999</v>
-      </c>
-      <c r="H15" s="5">
-        <v>29</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
-        <v>99</v>
-      </c>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="B16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" ht="19" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="O17" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1605,33 +1496,35 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>200</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>64</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="K18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="O18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -1642,31 +1535,33 @@
     </row>
     <row r="19" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5">
-        <v>240</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>64</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="O19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1677,182 +1572,218 @@
     </row>
     <row r="20" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>280</v>
-      </c>
-      <c r="H20" s="5">
-        <v>24</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5">
-        <v>64</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="O20" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" ht="19" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="5">
-        <v>2999</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5">
-        <v>64</v>
-      </c>
-      <c r="M21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
-        <v>68</v>
+      <c r="K21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U21" s="8">
+        <v>64999</v>
       </c>
       <c r="V21" s="5"/>
-      <c r="W21" s="5" t="s">
-        <v>96</v>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="28" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
-        <v>52</v>
+      <c r="B30" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
-        <v>57</v>
+      <c r="B31" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="S11:S21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="R17:R21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
       <formula1>$B$39:$B$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="R11:R21" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="Q17:Q21" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
       <formula1>$B$39:$B$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="Q11:Q21" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="P17:P21" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
       <formula1>$B$39:$B$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="P11:P21" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="O17:O21" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
       <formula1>$B$39:$B$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv6 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" sqref="L12" xr:uid="{24CD760B-D17A-314B-9ECE-4BECCCDAC200}">
+      <formula1>$B$43:$B$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv4 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" sqref="G12" xr:uid="{ACD9BFBB-ACE4-5C49-922F-7252AB653E2E}">
+      <formula1>$B$43:$B$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
   </headerFooter>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VRF" error="This VLAN must be associated with a VRF.  Please select from the drop-down." promptTitle="VRF" prompt="What VRF is this VLAN associated with?  This value is required." xr:uid="{5EF30933-0E74-B340-8B78-C4277D907B63}">
+          <x14:formula1>
+            <xm:f>vrf_table!$A$2:$A$399</xm:f>
+          </x14:formula1>
+          <xm:sqref>F17:F21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1860,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B287F-D4C8-774A-B570-29B7D13CF538}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1880,80 +1811,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <f>ROW()</f>
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
@@ -1987,7 +1918,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2014,207 +1945,207 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="R1" s="5" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>77</v>
+        <v>34</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>92</v>
+        <v>34</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="R6" s="10">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="8">
         <v>64999</v>
       </c>
       <c r="S6" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>

--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933F4CB-3200-4443-95EB-945B83F13248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1408C01-51AA-F84C-97CE-2111C5BDE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="2520" windowWidth="47460" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17940" yWindow="8960" windowWidth="47460" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
   <si>
     <t>VRF</t>
   </si>
@@ -46,6 +46,33 @@
     <t>vlan_id</t>
   </si>
   <si>
+    <t>vrf_index</t>
+  </si>
+  <si>
+    <t>Tenant_A</t>
+  </si>
+  <si>
+    <t>vlan_100</t>
+  </si>
+  <si>
+    <t>vlan_120</t>
+  </si>
+  <si>
+    <t>Tenant_B</t>
+  </si>
+  <si>
+    <t>vlan_200</t>
+  </si>
+  <si>
+    <t>vlan_240</t>
+  </si>
+  <si>
+    <t>vlan_280</t>
+  </si>
+  <si>
+    <t>vlan_130</t>
+  </si>
+  <si>
     <t>How to use this tool</t>
   </si>
   <si>
@@ -55,6 +82,42 @@
     <t>Do not change any of the header row names.  We need these names to be as they are so that the Python script knows where to find things.</t>
   </si>
   <si>
+    <t>VLANs associated with the VRF start on the row below the VRF name.  The column labeled 'VLAN' is where you put the name of the VLAN.  It can be anything that starts with a letter and includes alpha, numeric, and - or _ characters.</t>
+  </si>
+  <si>
+    <t>The column labeled 'vlan_id' is the numeric VLAN ID assigned to the particular VLAN.  Integers in the range [1, 4094] are allowed.</t>
+  </si>
+  <si>
+    <t>The Column labeled 'VRF' is where you define the name of your routing zone (aka tenant).  For each VRF (or routing zone, or tenant, whatever you call it) include a uniqe integer index on the same row in the column labeled 'vrf_index'.  Best to start from 1 and count up.</t>
+  </si>
+  <si>
+    <t>Declare 'Tenant_A' here.  Row contains the name and vrf_index only.</t>
+  </si>
+  <si>
+    <t>__ Blank line just makes the table easier to read __</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenant_B declaration begins here. </t>
+  </si>
+  <si>
+    <t>_VLAN vlan_280 is a dual-stack (IPv4 and IPv6) routed VLAN.</t>
+  </si>
+  <si>
+    <t>_VLANs associated with Tenant_B.</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_130 is pure L2 -- note no irb_prefix4 or irb_prefix6.</t>
+  </si>
+  <si>
+    <t>_VLANs associated with Tenant_A begin here.</t>
+  </si>
+  <si>
+    <t>All of the work is done in the sheet named vrf_vlan_table.  These are just instructions.  A sample table is presented starting in Column D at the bottom of this page.</t>
+  </si>
+  <si>
+    <t>Table Description</t>
+  </si>
+  <si>
     <t>irb_gateway4_a</t>
   </si>
   <si>
@@ -67,6 +130,30 @@
     <t>irb_gateway6_b</t>
   </si>
   <si>
+    <t>vlan_1999</t>
+  </si>
+  <si>
+    <t>vlan_2999</t>
+  </si>
+  <si>
+    <t>172.31.28.1</t>
+  </si>
+  <si>
+    <t>172.31.99.1</t>
+  </si>
+  <si>
+    <t>172.31.120.1</t>
+  </si>
+  <si>
+    <t>172.31.100.1</t>
+  </si>
+  <si>
+    <t>172.31.99.2</t>
+  </si>
+  <si>
+    <t>172.31.99.3</t>
+  </si>
+  <si>
     <t>ipv4_prefix_len</t>
   </si>
   <si>
@@ -76,9 +163,36 @@
     <t>ipv6_prefix_len</t>
   </si>
   <si>
+    <t>fc01:face:0200::1</t>
+  </si>
+  <si>
+    <t>fc01:face:0240::1</t>
+  </si>
+  <si>
+    <t>fc01:face:0280::1</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::1</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::2</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::3</t>
+  </si>
+  <si>
     <t>irb_gateway6</t>
   </si>
   <si>
+    <t>_VLANs vlan_100 and vlan_120 are routed IPv4 VLANs using anycast gateways.</t>
+  </si>
+  <si>
+    <t>_VLANS vlan_200 and vlan_240 are routed IPv6 VLANs using anycast gateways.</t>
+  </si>
+  <si>
+    <t>If the VLAN is routed, meaning the local attached switch is supposed to hold the default gateway for any hosts connected to the switch to the particular VLAN, then enter the IPv4 and/or IPv6 address associated with the default gateway address under the 'irb_gateway4' column (for IPv4 addresses) and/or the 'irb_gateway6' column (for IPv6 addresses).  If the VLAN is used for peering with external routers, each switch in the VLAN (usually 1 or 2) will need a unique IP address in addition to the (virtual) default gateway address.  You can ad those in the *_gateway_a and *_gateway_b columns.  If the VLAN is "purely L2", meaning that we expect any routing for the VLAN to happen on an external device like a firewall, then leave the irb_prefix4 and irb_prefix6 fields blank.</t>
+  </si>
+  <si>
     <t>Routing Protocol Pick List (used in column M of the vrf_vlan_table sheet)</t>
   </si>
   <si>
@@ -124,6 +238,18 @@
     <t>Peer IPv6</t>
   </si>
   <si>
+    <t>172.31.99.6</t>
+  </si>
+  <si>
+    <t>fc01:face:2999::fffe</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_1999 is routed IPv4 and uses VGA gateway.  BGP routing to external gateway.</t>
+  </si>
+  <si>
+    <t>_VLAN vlan_2999 is routed IPv6 and uses VGA gateway.  OSPFv3 routing to external gateway.</t>
+  </si>
+  <si>
     <t>OVERLAY</t>
   </si>
   <si>
@@ -199,12 +325,18 @@
     <t>OSPF Area</t>
   </si>
   <si>
+    <t>0.0.0.99</t>
+  </si>
+  <si>
     <t>10.110.34.1</t>
   </si>
   <si>
     <t>BGP Peer ASN</t>
   </si>
   <si>
+    <t>64999</t>
+  </si>
+  <si>
     <t>VRF Index</t>
   </si>
   <si>
@@ -271,56 +403,47 @@
     <t>DHCPv6 Mode</t>
   </si>
   <si>
-    <t>There are two tables in this workbook that contain configurable items.  The vrf_table is where we define the Tenants (VRF's) in our overlay.  The vlan_table is where we define the individual VLAN's.  Each VLAN must belong to a Tenant/VRF.</t>
-  </si>
-  <si>
-    <t>***DO NOT CHANGE ANYTHING BELOW THIS LINE***</t>
-  </si>
-  <si>
-    <t>vlan_1310 is a host-facing dual-stack VLAN</t>
-  </si>
-  <si>
-    <t>vlan_1315 is a host-facing IPv6-only VLAN</t>
-  </si>
-  <si>
-    <t>vlan_1320 is a host-facing IPv4-only VLAN</t>
-  </si>
-  <si>
-    <t>vlan_1330 is a host-facing bridged VLAN -- no IPv4 or IPv6 gateway in the fabric</t>
-  </si>
-  <si>
-    <t>vlan_1390 is a boder VLAN that peers via IPv4 and IPv6 with an external router</t>
-  </si>
-  <si>
-    <t>vlan_table example</t>
-  </si>
-  <si>
-    <t>Table Descriptions</t>
-  </si>
-  <si>
-    <t>vrf_table example</t>
-  </si>
-  <si>
-    <t>Tenant supporting dual-stack, DHCP relay, and external routing via OSPF, BGP, and static routes</t>
-  </si>
-  <si>
-    <t>In the vrf_table, the VRF Index is automatically generated.  You do not need to create the index by hand, but if you choose to do so, it must be a unique integer.  If there will be OSPF for routing between the tenant and the outside world, you set the OSPF area ID here.  The DHCP mode for both v4 and v6 can be set to None, Relay, or Server.  If set to relay, you can add up to 4 remote servers per protocol (IPv4 or IPv6).  If set to server, then the local switch is the DHCP server.</t>
-  </si>
-  <si>
-    <t>The vlan_table holds the items relevant to the individual VLANs.  You must assign a VLAN to a previously-configured VRF, as the 'vrf' column is a pick list, so create the VRF in vrf_table first.  Most VLANs are host-facing, not Border VLANs.  Host-facing VLANs use an anycast gateway address (e.g., every switch with the VLAN has the same IP address assigned to the associated IRB interface).  For an anycast gateway, you need only populate the irb_gateway4/irb_gateway6 column(s) to provide routing for local hosts.</t>
-  </si>
-  <si>
-    <t>For border VLANs, each switch must have a unique IP address for protocol peering with the external router.  For Border VLAN's only, you will set the virtual gateway address (irb_gateway4/irb_gateway6) and the unique IP's for the 'A' and 'B' switches (irb_gateway4_a/irb_gateway6_a and irb_gateway4_b/irb_gateway6_b).</t>
-  </si>
-  <si>
-    <t>For host-facing VLAN's, Border? = No.  For border VLAN's, Border? = Yes.  If you designate a VLAN as a Border VLAN, you must also enable one or more routing protocols.  BGP and static routes require a peer (in the case of a static route, it's just the next-hop), while OSPF does not.  Remember that OSPF does require an Area ID assignment in the vrf_table.  BGP peering also requires knowing the peer ASN.</t>
+    <t>DHCPv6 Low</t>
+  </si>
+  <si>
+    <t>DHCPv6 High</t>
+  </si>
+  <si>
+    <t>10.110.33.10</t>
+  </si>
+  <si>
+    <t>10.110.33.62</t>
+  </si>
+  <si>
+    <t>DHCPv4 Low</t>
+  </si>
+  <si>
+    <t>DHCPv4 High</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:151e::1000</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:151e::ffff</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:1523::1000</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:1523::ffff</t>
+  </si>
+  <si>
+    <t>10.110.34.10</t>
+  </si>
+  <si>
+    <t>10.110.34.62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,6 +456,13 @@
       <i/>
       <sz val="16"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,31 +499,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -401,11 +528,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -416,32 +565,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
+  <dxfs count="70">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -503,226 +754,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -730,6 +761,94 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -779,132 +898,114 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B42:B45" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="B42:B45" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="D10:W21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="54"/>
+    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="51"/>
+    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="47"/>
+    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="45"/>
+    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F123A756-81F6-FD4C-9819-D8AD35262A68}" name="Table16" displayName="Table16" ref="D16:U21" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="D16:U21" xr:uid="{F123A756-81F6-FD4C-9819-D8AD35262A68}"/>
-  <tableColumns count="18">
-    <tableColumn id="3" xr3:uid="{A10C1437-8936-CE4D-8C20-778462D57F4B}" name="VLAN" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{2C81D33F-C8E2-DC45-AC25-1E4B33A313E6}" name="vlan_id" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{8798C719-7BE9-2641-8CE3-A87CD739D608}" name="vrf" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{775166DF-F0CA-2C49-953D-A54AB0754569}" name="ipv4_prefix_len" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{DFC0767A-086A-7645-A05E-BDFFD082D8CF}" name="irb_gateway4" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{CAC15505-4567-D34F-8911-B5946F48A058}" name="irb_gateway4_a" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{1C6AC8FF-77E4-8440-A621-422526B75DAD}" name="irb_gateway4_b" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{9F027E12-C65E-E248-8E1A-C6CE3F21FCBF}" name="ipv6_prefix_len" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{968F160C-DEE0-4549-A0FB-9536671F4ECB}" name="irb_gateway6" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{94B70256-E09B-D34B-8B64-0A1208CD9964}" name="irb_gateway6_a" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{8E7F9358-1BF0-C34E-BF84-9AF12A52314D}" name="irb_gateway6_b" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{445AA069-36C1-1E46-95B3-1A113F863DAF}" name="Border?" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{C71E7895-E51D-2D46-AE13-95026EBA209B}" name="BGP?" dataDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{1E8B3B5D-5C6E-DA4B-9F8A-918CEFEEA87E}" name="OSPF?" dataDxfId="19"/>
-    <tableColumn id="18" xr3:uid="{8951AAE4-D23C-8E42-9F4F-745BFB2E9D7C}" name="Static?" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{A2289F86-F7F0-F746-887E-C5AB43D2E708}" name="Peer IPv4" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{E3B17BDA-1113-344F-B0CF-6F7CF30214DF}" name="Peer IPv6" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{64C52624-F990-614C-A1C2-BC5314BB5554}" name="BGP Peer ASN" dataDxfId="15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B42:B45" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="B42:B45" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7AF34A03-2654-F945-9C54-68234AA5C711}" name="Table138" displayName="Table138" ref="D11:P12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="D11:P12" xr:uid="{7AF34A03-2654-F945-9C54-68234AA5C711}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{80B92D79-79DD-084B-99AF-0A2F0F9EF4FA}" name="VRF" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{98F54F06-F370-714B-B79F-227FE4125A32}" name="VRF Index" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="35">
       <calculatedColumnFormula>ROW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{ADE9CD37-ECDD-4044-9935-8DAECBFD74E4}" name="OSPF Area" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{C327D454-E43A-8A45-838C-FD09FB1E501A}" name="DHCPv4 Mode" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B2C64575-092A-7248-A745-BBEBDD7168AF}" name="DHCPv4 Server 1" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{F721D953-58FB-4C4A-B77E-D9C535DA0B04}" name="DHCPv4 Server 2" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{E429AADA-A536-D841-B20C-59262BCE4446}" name="DHCPv4 Server 3" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{E1CCAD34-77DC-3D4A-A5DD-E92DD7E3764F}" name="DHCPv4 Server 4" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{19F434FB-C37F-FF40-847B-5F6F470BD295}" name="DHCPv6 Mode" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{171DA5ED-A1C7-1247-9883-368A06BF4FAD}" name="DHCPv6 Server 1" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{D8C6B60F-DED8-5143-93FE-CB822682B468}" name="DHCPv6 Server 2" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{FFB0DABA-FA26-F849-9A7B-FF8DAFE58798}" name="DHCPv6 Server 3" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{597FC488-5B49-E644-B25B-93BFAD58695D}" name="DHCPv6 Server 4" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Mode" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Mode" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="66">
-      <calculatedColumnFormula>ROW()</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Mode" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="63"/>
-    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Mode" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="55"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R6" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:R6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="41"/>
-    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="38"/>
-    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:V6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="22">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D368605F-1FF1-0440-9DA6-C351068447B6}" name="DHCPv4 Low" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{9DBF3408-7B59-F140-853B-70E93F75F714}" name="DHCPv4 High" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{AAA4A875-8B19-D340-940D-C38F9AE75C03}" name="DHCPv6 Low" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{CBA8C600-5ACD-3049-9A63-CABEE94E1FD7}" name="DHCPv6 High" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1209,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,22 +1321,21 @@
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="51" x14ac:dyDescent="0.2">
@@ -1243,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="34" x14ac:dyDescent="0.2">
@@ -1251,242 +1351,330 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="102" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="85" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="170" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>87</v>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>65</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
     </row>
     <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="1">
-        <f>ROW()</f>
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="G12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5">
+        <v>24</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>120</v>
+      </c>
+      <c r="H13" s="5">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5">
+        <v>130</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="V15" s="5"/>
+    <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1999</v>
+      </c>
+      <c r="H15" s="5">
+        <v>29</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="2:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
@@ -1496,35 +1684,33 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="2:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <v>200</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5">
+        <v>64</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -1535,33 +1721,31 @@
     </row>
     <row r="19" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G19" s="5">
+        <v>240</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5">
+        <v>64</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1572,218 +1756,182 @@
     </row>
     <row r="20" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="5">
+        <v>280</v>
+      </c>
+      <c r="H20" s="5">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5">
+        <v>64</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="2:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="5">
+        <v>2999</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5">
+        <v>64</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="O21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="5" t="s">
+      <c r="P21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U21" s="8">
-        <v>64999</v>
-      </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="28" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="31" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="7" t="s">
-        <v>19</v>
+      <c r="B31" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="R17:R21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="S11:S21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
       <formula1>$B$39:$B$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="Q17:Q21" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="R11:R21" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
       <formula1>$B$39:$B$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="P17:P21" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="Q11:Q21" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
       <formula1>$B$39:$B$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="O17:O21" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="P11:P21" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
       <formula1>$B$39:$B$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv6 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" sqref="L12" xr:uid="{24CD760B-D17A-314B-9ECE-4BECCCDAC200}">
-      <formula1>$B$43:$B$45</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv4 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" sqref="G12" xr:uid="{ACD9BFBB-ACE4-5C49-922F-7252AB653E2E}">
-      <formula1>$B$43:$B$45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
   </headerFooter>
-  <tableParts count="5">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="VRF" error="This VLAN must be associated with a VRF.  Please select from the drop-down." promptTitle="VRF" prompt="What VRF is this VLAN associated with?  This value is required." xr:uid="{5EF30933-0E74-B340-8B78-C4277D907B63}">
-          <x14:formula1>
-            <xm:f>vrf_table!$A$2:$A$399</xm:f>
-          </x14:formula1>
-          <xm:sqref>F17:F21</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1791,8 +1939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B287F-D4C8-774A-B570-29B7D13CF538}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1811,80 +1959,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1">
         <f>ROW()</f>
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
@@ -1915,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:R6"/>
+    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1934,10 +2082,13 @@
     <col min="16" max="16" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="5"/>
+    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1945,207 +2096,246 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>35</v>
+        <v>76</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>38</v>
+        <v>76</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="5"/>
+      <c r="U3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="8">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="10">
         <v>64999</v>
       </c>
       <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="T9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>

--- a/support/vrf_vlan_example.xlsx
+++ b/support/vrf_vlan_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gbensimon/Library/CloudStorage/GoogleDrive-terpee93@gmail.com/My Drive/git/apstra-freeform/freeform_ipv6_fabric/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1408C01-51AA-F84C-97CE-2111C5BDE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B2535E3-478A-9143-B2CC-8F0754582759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17940" yWindow="8960" windowWidth="47460" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="11500" windowWidth="47460" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
   <si>
     <t>VRF</t>
   </si>
@@ -340,51 +340,9 @@
     <t>VRF Index</t>
   </si>
   <si>
-    <t>DHCPv4 Server 1</t>
-  </si>
-  <si>
-    <t>DHCPv4 Server 2</t>
-  </si>
-  <si>
-    <t>DHCPv4 Server 3</t>
-  </si>
-  <si>
-    <t>DHCPv4 Server 4</t>
-  </si>
-  <si>
     <t>0.0.0.0</t>
   </si>
   <si>
-    <t>DHCPv6 Server 1</t>
-  </si>
-  <si>
-    <t>DHCPv6 Server 2</t>
-  </si>
-  <si>
-    <t>DHCPv6 Server 3</t>
-  </si>
-  <si>
-    <t>DHCPv6 Server 4</t>
-  </si>
-  <si>
-    <t>10.110.99.5</t>
-  </si>
-  <si>
-    <t>10.110.99.6</t>
-  </si>
-  <si>
-    <t>2601:face:beef::aa99:5</t>
-  </si>
-  <si>
-    <t>2601:face:beef::aa99:6</t>
-  </si>
-  <si>
-    <t>2601:face:beef::aa99:7</t>
-  </si>
-  <si>
-    <t>2601:face:beef::aa99:8</t>
-  </si>
-  <si>
     <t>vrf</t>
   </si>
   <si>
@@ -394,56 +352,83 @@
     <t>Relay</t>
   </si>
   <si>
+    <t>DHCPv4 Mode</t>
+  </si>
+  <si>
+    <t>DHCPv6 Mode</t>
+  </si>
+  <si>
+    <t>DHCPv6 Low</t>
+  </si>
+  <si>
+    <t>DHCPv6 High</t>
+  </si>
+  <si>
+    <t>DHCPv4 Low</t>
+  </si>
+  <si>
+    <t>DHCPv4 High</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:151e::1000</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:151e::ffff</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:1523::1000</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:1523::ffff</t>
+  </si>
+  <si>
+    <t>10.110.34.10</t>
+  </si>
+  <si>
+    <t>10.110.34.62</t>
+  </si>
+  <si>
     <t>Server</t>
   </si>
   <si>
-    <t>DHCPv4 Mode</t>
-  </si>
-  <si>
-    <t>DHCPv6 Mode</t>
-  </si>
-  <si>
-    <t>DHCPv6 Low</t>
-  </si>
-  <si>
-    <t>DHCPv6 High</t>
-  </si>
-  <si>
-    <t>10.110.33.10</t>
-  </si>
-  <si>
-    <t>10.110.33.62</t>
-  </si>
-  <si>
-    <t>DHCPv4 Low</t>
-  </si>
-  <si>
-    <t>DHCPv4 High</t>
-  </si>
-  <si>
-    <t>2601:de2a:aa01:151e::1000</t>
-  </si>
-  <si>
-    <t>2601:de2a:aa01:151e::ffff</t>
-  </si>
-  <si>
-    <t>2601:de2a:aa01:1523::1000</t>
-  </si>
-  <si>
-    <t>2601:de2a:aa01:1523::ffff</t>
-  </si>
-  <si>
-    <t>10.110.34.10</t>
-  </si>
-  <si>
-    <t>10.110.34.62</t>
+    <t>SLAAC?</t>
+  </si>
+  <si>
+    <t>RDNSS?</t>
+  </si>
+  <si>
+    <t>RDNSS Server</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:face::10</t>
+  </si>
+  <si>
+    <t>2601:de2a:aa01:1003::8</t>
+  </si>
+  <si>
+    <t>DHCPv6 Server</t>
+  </si>
+  <si>
+    <t>DHCPv4 Server</t>
+  </si>
+  <si>
+    <t>10.110.99.99</t>
+  </si>
+  <si>
+    <t>Yes+Other</t>
+  </si>
+  <si>
+    <t>Version 1.0.0-RC2</t>
+  </si>
+  <si>
+    <t>Last updated:  1 Sept 2023 @ 15:45 EDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,13 +473,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,153 +561,507 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -898,114 +1230,111 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B31:B35" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="B31:B35" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}" name="Table3" displayName="Table3" ref="B33:B37" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+  <autoFilter ref="B33:B37" xr:uid="{B5EE2D33-E684-6644-9230-CAF2182F5FF0}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{B7EEA18C-4B70-5E43-BA6B-08B17BB9FA69}" name="Routing Protocol" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B38:B40" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
-  <autoFilter ref="B38:B40" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}" name="Table4" displayName="Table4" ref="B40:B43" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="B40:B43" xr:uid="{4F7B0DAE-A3FD-9441-BF4F-A435CE537E20}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{8F26CD61-ABD2-9D4B-B379-F374280928E3}" name="Yes/No" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D10:W21" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="D10:W21" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}" name="Table16" displayName="Table16" ref="D12:W23" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="D12:W23" xr:uid="{503A6E75-A4A8-DD4C-80DC-F84F13D1A767}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="50"/>
-    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="46"/>
-    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="45"/>
-    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="43"/>
-    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{FC4D9186-D3C9-B84D-889A-D5A453327A0B}" name="VRF" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{C7ABF463-A0A9-AB4D-A52C-C06D572108B0}" name="vrf_index" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{A6E66FC4-7F8C-724E-878B-9E3E9550D182}" name="VLAN" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{95E16125-F893-F640-8529-9F856D576C72}" name="vlan_id" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{EAF7FDFA-59BE-554C-AD28-5C45AB1F193C}" name="ipv4_prefix_len" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{CF882013-BF75-7948-8A36-1C111FFB392E}" name="irb_gateway4" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{CEA03DCD-8AE5-F047-A812-3A26F0BC9299}" name="irb_gateway4_a" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{8D55C51C-D9E3-FC46-A619-2316AC79F557}" name="irb_gateway4_b" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{BD8730A5-8393-244E-9967-A2F8875AD7D5}" name="ipv6_prefix_len" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{3018A3D6-A804-3548-B4C5-79EF33009F3B}" name="irb_gateway6" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{BB7FABC5-8B2C-D94F-9659-27CD4A404063}" name="irb_gateway6_a" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{AB0AFB75-1C9B-764D-ADB4-0202F659E8C1}" name="irb_gateway6_b" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{240F06E5-48AC-0E44-B922-FF2F78315B37}" name="Border?" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{97168BD7-2AC8-9B44-8877-08F36D50880D}" name="BGP?" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{3C8C53D3-5571-A341-906A-83122CCC82A3}" name="OSPF?" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{897A5642-94B2-5844-9DB5-5EA23E44CE4B}" name="Static?" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{E15E51F0-4BEF-ED44-9702-18BBD701D5DA}" name="Peer IPv4" dataDxfId="42"/>
+    <tableColumn id="19" xr3:uid="{B4F0AEED-C5DE-A842-9DB9-74E511473B36}" name="Peer IPv6" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{3D21E974-A402-A340-B9BA-8E418BB4AA98}" name="BGP Peer ASN" dataDxfId="40"/>
+    <tableColumn id="20" xr3:uid="{0694049F-386A-F346-ADEA-6D3E21E7E99A}" name="OSPF Area" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B42:B45" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
-  <autoFilter ref="B42:B45" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}" name="Table6" displayName="Table6" ref="B45:B48" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="B45:B48" xr:uid="{CE94C60C-6802-894A-8033-43475C4C5B5B}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{A1F4C71C-87FF-2149-8CB6-05AA05A96451}" name="DHCP Mode" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:M2" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:M2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B5859428-B2FB-0043-A043-53AB6051B5D2}" name="Table13" displayName="Table13" ref="A1:C2" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{85E209CF-6465-7441-B3FB-534D9995B2E5}" name="VRF" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{A133323C-8C0C-184A-BD66-33F146A57384}" name="VRF Index" dataDxfId="32">
       <calculatedColumnFormula>ROW()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{E6156EDE-F5FC-D645-AA16-4D3CEC8E1D50}" name="DHCPv4 Mode" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{9A1A1598-D4DF-1E41-9EC4-7BDD7F8EE100}" name="DHCPv4 Server 1" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{5D1F51DE-CC67-DA47-BC37-4A25C9F8E0CA}" name="DHCPv4 Server 2" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{970ACFAA-31AF-8343-87AC-9197E00B46A7}" name="DHCPv4 Server 3" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{70FE0235-DF28-AB40-8925-800424EBC294}" name="DHCPv4 Server 4" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{691BBFF0-EA4A-8A48-9434-D94D2BCAE213}" name="DHCPv6 Mode" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{E1433242-3DD7-D042-993D-700F3D9D1929}" name="DHCPv6 Server 1" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{D1FED7C4-8097-5243-9F6E-1999953D1C8C}" name="DHCPv6 Server 2" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{92F5B3B5-77B6-D34F-AD72-B46AD7807073}" name="DHCPv6 Server 3" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{C2548B47-AA68-A549-9D2F-6ED36521DD50}" name="DHCPv6 Server 4" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{033ED621-60A5-C944-B445-0E49433AF33E}" name="OSPF Area" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V6" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:V6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="22">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D368605F-1FF1-0440-9DA6-C351068447B6}" name="DHCPv4 Low" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{9DBF3408-7B59-F140-853B-70E93F75F714}" name="DHCPv4 High" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AC6" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:AC6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="29">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VLAN" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="vlan_id" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{F31D8598-66EA-A441-BBE2-8B05AF15142E}" name="vrf" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{B59DC5A7-BD5B-4341-911D-D9EBA43E7560}" name="ipv4_prefix_len" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="irb_gateway4" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{D0819141-2518-2140-B08B-7B3B7C0E690A}" name="irb_gateway4_a" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{982B3D37-24B7-234B-9036-C37410235FAB}" name="irb_gateway4_b" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{C74959A9-CD2A-AC43-833F-3CDF9B95B40B}" name="ipv6_prefix_len" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="irb_gateway6" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{01D5888D-C9C2-2A4E-97A7-D1FAD414B8CB}" name="irb_gateway6_a" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{C0A34810-096C-D04A-8892-D43C48E942A2}" name="irb_gateway6_b" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{F8EEEBCF-0B3E-E54D-A02A-7BA4FCDA1D9B}" name="Border?" dataDxfId="17"/>
+    <tableColumn id="16" xr3:uid="{4AF0FA81-3646-1B42-931F-79015305571D}" name="BGP?" dataDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{9C9F320F-6160-844A-B562-E12EDD97B461}" name="OSPF?" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{2EA21AFF-00C7-4345-8748-0C4E58C48C64}" name="Static?" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{7C481251-5B49-2D46-83B7-688CB01708BD}" name="Peer IPv4" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{5D806061-7986-6541-912E-54A30BDEC94D}" name="Peer IPv6" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{FD9EDD41-ECBE-2C43-A73C-7F488DF37E2D}" name="BGP Peer ASN" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{7DBACCEE-E590-B14D-94C5-F4BB5FDC71D2}" name="SLAAC?" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{B9A0A0FD-E6D5-DB41-A8DF-BAD74BB0C610}" name="RDNSS?" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{49E70EC2-F131-FA4E-AFEA-6822BE778314}" name="RDNSS Server" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{80EB1EC9-EF62-6847-9D89-94933C1DDCF4}" name="DHCPv4 Mode" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D368605F-1FF1-0440-9DA6-C351068447B6}" name="DHCPv4 Low" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{9DBF3408-7B59-F140-853B-70E93F75F714}" name="DHCPv4 High" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{A0BFB682-0E86-F645-BC48-6E1E48943041}" name="DHCPv4 Server" dataDxfId="4"/>
+    <tableColumn id="29" xr3:uid="{226D3662-6307-EB4B-8853-4BDC88173641}" name="DHCPv6 Mode" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{AAA4A875-8B19-D340-940D-C38F9AE75C03}" name="DHCPv6 Low" dataDxfId="2"/>
     <tableColumn id="21" xr3:uid="{CBA8C600-5ACD-3049-9A63-CABEE94E1FD7}" name="DHCPv6 High" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{1ADB4743-FD49-194F-A260-6B2291556582}" name="DHCPv6 Server" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1308,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,213 +1664,153 @@
     </row>
     <row r="2" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="5" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="6" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="7" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="8" spans="1:23" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="9" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="170" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="10" spans="1:23" ht="170" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>100</v>
-      </c>
-      <c r="H12" s="5">
-        <v>24</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
     </row>
     <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5">
-        <v>120</v>
-      </c>
-      <c r="H13" s="5">
-        <v>24</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
@@ -1552,18 +1821,22 @@
     </row>
     <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5">
-        <v>130</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="5">
+        <v>24</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1583,61 +1856,51 @@
     </row>
     <row r="15" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5">
-        <v>1999</v>
+        <v>120</v>
       </c>
       <c r="H15" s="5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="V15" s="5"/>
       <c r="W15" s="5"/>
     </row>
     <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5">
+        <v>130</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1646,7 +1909,9 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -1657,60 +1922,70 @@
     </row>
     <row r="17" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>29</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="V17" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="W17" s="5"/>
     </row>
     <row r="18" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>200</v>
-      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5">
-        <v>64</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -1721,31 +1996,25 @@
     </row>
     <row r="19" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5">
-        <v>240</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5">
-        <v>64</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -1756,29 +2025,25 @@
     </row>
     <row r="20" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>280</v>
-      </c>
-      <c r="H20" s="5">
-        <v>24</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5">
         <v>64</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1795,15 +2060,15 @@
     </row>
     <row r="21" spans="2:23" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>2999</v>
+        <v>240</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1813,113 +2078,192 @@
         <v>64</v>
       </c>
       <c r="M21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="5">
+        <v>280</v>
+      </c>
+      <c r="H22" s="5">
+        <v>24</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
+        <v>64</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2999</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
+        <v>64</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5" t="s">
+      <c r="T23" s="5"/>
+      <c r="U23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5" t="s">
+      <c r="V23" s="5"/>
+      <c r="W23" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+    <row r="32" spans="2:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
+    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="2:2" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="S11:S21" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
-      <formula1>$B$39:$B$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" sqref="S13:S23" xr:uid="{75BDE814-AA9E-424F-9E83-2A2F201E5556}">
+      <formula1>$B$41:$B$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="R11:R21" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
-      <formula1>$B$39:$B$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" sqref="R13:R23" xr:uid="{E331B341-FC03-4A4C-AA27-729E41B9726A}">
+      <formula1>$B$41:$B$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="Q11:Q21" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
-      <formula1>$B$39:$B$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" sqref="Q13:Q23" xr:uid="{1D295984-6378-4B4D-9520-6A60FFBD6ABE}">
+      <formula1>$B$41:$B$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="P11:P21" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
-      <formula1>$B$39:$B$40</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." sqref="P13:P23" xr:uid="{4B375853-08C1-F143-8D16-A76EB2E944E5}">
+      <formula1>$B$41:$B$43</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1937,24 +2281,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34B287F-D4C8-774A-B570-29B7D13CF538}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="5"/>
     <col min="3" max="3" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1964,38 +2304,8 @@
       <c r="C1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -2004,31 +2314,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2040,33 +2326,15 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv4 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" xr:uid="{1B85771F-D8CF-0A46-A2FD-E035BEDDFDBA}">
-          <x14:formula1>
-            <xm:f>Instructions!$B$43:$B$45</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="DHCP Mode" error="You must enter one of [ None, Relay, Server ] in the drop-down." promptTitle="DHCPv6 Mode" prompt="Select one of:_x000a_None = No DHCP services_x000a_Relay = Forward DHCP client requests to a remote server_x000a_Server = The local switch is the DHCP server" xr:uid="{21BDDB48-4481-594A-888D-9BCB935E1660}">
-          <x14:formula1>
-            <xm:f>Instructions!$B$43:$B$45</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2082,13 +2350,18 @@
     <col min="16" max="16" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="5"/>
+    <col min="19" max="20" width="15.33203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.6640625" customWidth="1"/>
+    <col min="27" max="28" width="28.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -2096,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>39</v>
@@ -2144,19 +2417,40 @@
         <v>98</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC1" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -2182,19 +2476,34 @@
         <v>61</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="5"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>78</v>
       </c>
@@ -2213,16 +2522,35 @@
       <c r="L3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>81</v>
       </c>
@@ -2242,13 +2570,28 @@
         <v>61</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
@@ -2270,10 +2613,23 @@
       <c r="O5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="S5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>85</v>
       </c>
@@ -2328,14 +2684,33 @@
       <c r="R6" s="10">
         <v>64999</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="T9" s="5"/>
+      <c r="S6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation errorStyle="warning" errorTitle="Error:  RDNSS" error="Please select either Yes or No from the drop-down list." prompt="Please select either Yes or No from the drop-down list." sqref="U2:U6" xr:uid="{CF16F615-8CBC-E044-B746-0F4ABFA21794}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 Juniper Business Use Only</oddFooter>
@@ -2345,28 +2720,28 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Border?" prompt="For VLANs only, not VRFs.  Select Yes if this VLAN provides routing to an external gateway, otherwise select No." xr:uid="{A4E2DE9B-95BC-1A47-9ED2-9FDDF8B2F40A}">
           <x14:formula1>
-            <xm:f>Instructions!$B$39:$B$40</xm:f>
+            <xm:f>Instructions!$B$41:$B$42</xm:f>
           </x14:formula1>
           <xm:sqref>L2:L6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="BGP?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via BGP to an external gateway?" xr:uid="{ABEF2EB8-95D2-EB48-926F-749EE246B98E}">
           <x14:formula1>
-            <xm:f>Instructions!$B$39:$B$40</xm:f>
+            <xm:f>Instructions!$B$41:$B$42</xm:f>
           </x14:formula1>
           <xm:sqref>M2:M6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OSPF?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it peer via OSPFv2 or OSPFv3 to an external gateway?" xr:uid="{4D69B282-05F7-7243-8D4E-D2BF7D10CABF}">
           <x14:formula1>
-            <xm:f>Instructions!$B$39:$B$40</xm:f>
+            <xm:f>Instructions!$B$41:$B$42</xm:f>
           </x14:formula1>
           <xm:sqref>N2:N6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Static?" prompt="For VLANs only, not VRFs.  If this VLAN is a border VLAN, does it have a static route to an external gateway?" xr:uid="{4CF55F88-49AA-7C40-B4F4-1C1149F525C8}">
           <x14:formula1>
-            <xm:f>Instructions!$B$39:$B$40</xm:f>
+            <xm:f>Instructions!$B$41:$B$42</xm:f>
           </x14:formula1>
           <xm:sqref>O2:O6</xm:sqref>
         </x14:dataValidation>
@@ -2376,6 +2751,30 @@
           </x14:formula1>
           <xm:sqref>C2:C6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="DHCPv4 Mode Error" error="This field must be set to one of None, Relay, or Server" promptTitle="DHCPv4 Mode" prompt="Please select one of None, Relay, or Server from the list." xr:uid="{EECC2110-CC88-9149-9D6E-4971FFB09C6D}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$46:$B$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>V2:V6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Error: SLAAC" error="Please select No, Yes, or Yes + Other from the drop-down list." promptTitle="Enable SLAAC?" prompt="Please select No, Yes, or Yes + Other from the drop-down list." xr:uid="{CFEFC705-19EF-634C-BDE1-26BE1802A62D}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$41:$B$43</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Error:  RDNSS" error="Please select either Yes or No from the drop-down list." promptTitle="Enable RDNSS?" prompt="Please select either Yes or No from the drop-down list." xr:uid="{A42CD40B-5B3E-2D43-ACC1-537933F36AF5}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$41:$B$42</xm:f>
+          </x14:formula1>
+          <xm:sqref>T2:T6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="DHCPv6 Mode Error" error="This field must be set to one of None, Relay, or Server" promptTitle="DHCPv6 Mode" prompt="Please select one of None, Relay, or Server from the list." xr:uid="{4DDC4BC3-7E50-714F-A751-DE10E1119417}">
+          <x14:formula1>
+            <xm:f>Instructions!$B$46:$B$48</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z2:Z6</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
